--- a/Data Files/mohawk_test_out.xlsx
+++ b/Data Files/mohawk_test_out.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,6 +379,48 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -393,17 +435,87 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>col_1</t>
+          <t>show_link</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>col_2</t>
+          <t>time</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>col_3</t>
+          <t>age_restriction</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>list_id</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>show_link</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>supported_by</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>list_id</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>show_link</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>presented_by</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>list_id</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>show_link</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>list_id</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>show_link</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>headliner_1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>headliner_2</t>
         </is>
       </c>
     </row>
@@ -418,17 +530,79 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89341188901/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>5 PM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89341188901/</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89341188901/</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Mohawk and Mercer Smith presents</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Monday, Mar 9</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5 PM</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89341188901/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Punk Yoga @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -443,17 +617,79 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/solar-moth-mohawk-indoor--93021514855/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/solar-moth-mohawk-indoor--93021514855/</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Luckdragon, The Exiles</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/solar-moth-mohawk-indoor--93021514855/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 11</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/solar-moth-mohawk-indoor--93021514855/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Solar Moth</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -468,17 +704,79 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/the-banisters-th-anniversary-show-mohawk-indoor--91641703803/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-banisters-th-anniversary-show-mohawk-indoor--91641703803/</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-banisters-th-anniversary-show-mohawk-indoor--91641703803/</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Thursday, Mar 12</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-banisters-th-anniversary-show-mohawk-indoor--91641703803/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>The Banisters 4th Anniversary Show @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -493,17 +791,79 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/apocalypse-trouble-mohawk-indoor--98459935317/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>5 PM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/apocalypse-trouble-mohawk-indoor--98459935317/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/apocalypse-trouble-mohawk-indoor--98459935317/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Sunday, Mar 22</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>5 PM</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/apocalypse-trouble-mohawk-indoor--98459935317/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Apocalypse Trouble @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -518,17 +878,79 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/the-warning-sold-out-mohawk-indoor--83366662933/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-warning-sold-out-mohawk-indoor--83366662933/</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>JunkBunny</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-warning-sold-out-mohawk-indoor--83366662933/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Wednesday, Mar 25</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-warning-sold-out-mohawk-indoor--83366662933/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>The Warning</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -543,17 +965,79 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/watsky-placement-album-tour-mohawk-81371334853/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/watsky-placement-album-tour-mohawk-81371334853/</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Travis Thompson, Feed the Biirds</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/watsky-placement-album-tour-mohawk-81371334853/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Margin Walker Presents</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Thursday, Mar 26</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/watsky-placement-album-tour-mohawk-81371334853/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Watsky</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -568,17 +1052,79 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/secondhand-sound-mohawk-indoor--86711840449/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/secondhand-sound-mohawk-indoor--86711840449/</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jackie Castro, Maggie Miles</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/secondhand-sound-mohawk-indoor--86711840449/</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Friday, Mar 27</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/secondhand-sound-mohawk-indoor--86711840449/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Secondhand Sound</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -593,17 +1139,79 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/best-coast-mohawk-71460836285/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/best-coast-mohawk-71460836285/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mannequin Pussy</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/best-coast-mohawk-71460836285/</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Margin Walker &amp; KUTX 98.9 Present</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Saturday, Mar 28</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/best-coast-mohawk-71460836285/</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Best Coast</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -618,17 +1226,79 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/austin-plaine-anthony-da-costa-mohawk-indoor--78197054495/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>9 PM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/austin-plaine-anthony-da-costa-mohawk-indoor--78197054495/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Anthony da Costa</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/austin-plaine-anthony-da-costa-mohawk-indoor--78197054495/</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Saturday, Mar 28</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>9 PM</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/austin-plaine-anthony-da-costa-mohawk-indoor--78197054495/</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Austin Plaine</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -643,17 +1313,79 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/pears-mohawk-indoor--84631500095/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pears-mohawk-indoor--84631500095/</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Single Mothers, Noogy</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pears-mohawk-indoor--84631500095/</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Sunday, Mar 29</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pears-mohawk-indoor--84631500095/</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -668,17 +1400,79 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/circle-pit-mohawk-indoor--86055800215/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/circle-pit-mohawk-indoor--86055800215/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Zero Percent, Hellfury, Bondbreakr</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/circle-pit-mohawk-indoor--86055800215/</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Mohawk presents</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tuesday, Mar 31</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/circle-pit-mohawk-indoor--86055800215/</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Circle Pit</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -693,17 +1487,79 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/arius-holifield-s-photography-art-show-opening-mohawk-indoor--96254424575/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>5 PM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>Ages 21+</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/arius-holifield-s-photography-art-show-opening-mohawk-indoor--96254424575/</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/arius-holifield-s-photography-art-show-opening-mohawk-indoor--96254424575/</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Mohawk presents</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Wednesday, Apr 1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>5 PM</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/arius-holifield-s-photography-art-show-opening-mohawk-indoor--96254424575/</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Arius Holifield's Photography Art Show Opening @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -718,17 +1574,79 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/josh-kelley-mohawk-indoor--83866034567/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/josh-kelley-mohawk-indoor--83866034567/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Harper Grae</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/josh-kelley-mohawk-indoor--83866034567/</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Wednesday, Apr 1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/josh-kelley-mohawk-indoor--83866034567/</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Josh Kelley</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -743,17 +1661,79 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/los-amigos-invisibles-aterciopelados-mohawk-74339273769/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>7 PM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/los-amigos-invisibles-aterciopelados-mohawk-74339273769/</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/los-amigos-invisibles-aterciopelados-mohawk-74339273769/</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>C3 Concerts Presents</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Thursday, Apr 2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>7 PM</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/los-amigos-invisibles-aterciopelados-mohawk-74339273769/</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Los Amigos Invisibles &amp; Aterciopelados @ Mohawk</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -768,17 +1748,79 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/leftover-crack-the-casualties-mohawk-90387891617/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>7 PM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/leftover-crack-the-casualties-mohawk-90387891617/</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Grade 2, The Last Gang</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/leftover-crack-the-casualties-mohawk-90387891617/</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Friday, Apr 3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>7 PM</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/leftover-crack-the-casualties-mohawk-90387891617/</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Leftover Crack</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>The Casualties</t>
         </is>
       </c>
     </row>
@@ -793,17 +1835,79 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/black-pool-x-cody-lovaas-mohawk-indoor--88917708259/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>9 PM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/black-pool-x-cody-lovaas-mohawk-indoor--88917708259/</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/black-pool-x-cody-lovaas-mohawk-indoor--88917708259/</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Friday, Apr 3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9 PM</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/black-pool-x-cody-lovaas-mohawk-indoor--88917708259/</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Black Pool x Cody Lovaas @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -818,17 +1922,79 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/tauk-with-kalu-and-the-electric-joint-mohawk-83366317901/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>7:30 PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tauk-with-kalu-and-the-electric-joint-mohawk-83366317901/</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tauk-with-kalu-and-the-electric-joint-mohawk-83366317901/</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Saturday, Apr 4</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>7:30 PM</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tauk-with-kalu-and-the-electric-joint-mohawk-83366317901/</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>TAUK with Kalu and The Electric Joint @ Mohawk</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -843,17 +2009,79 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/dan-rodriguez-mohawk-indoor--92409131199/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>7 PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/dan-rodriguez-mohawk-indoor--92409131199/</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/dan-rodriguez-mohawk-indoor--92409131199/</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sunday, Apr 5</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7 PM</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/dan-rodriguez-mohawk-indoor--92409131199/</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Dan Rodriguez @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -868,17 +2096,79 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/code-orange-mohawk-86742584405/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>6 PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/code-orange-mohawk-86742584405/</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Show Me the Body, Jesus Piece, Year of the Knife, Machine Girl</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/code-orange-mohawk-86742584405/</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Barry's Club Presents</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Tuesday, Apr 7</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>6 PM</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/code-orange-mohawk-86742584405/</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Code Orange</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -893,17 +2183,79 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/tops-mohawk-74517440671/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>7 PM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tops-mohawk-74517440671/</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Honey Harper, Zettajoule</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tops-mohawk-74517440671/</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Mohawk &amp; Margin Walker present</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Thursday, Apr 9</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>7 PM</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/tops-mohawk-74517440671/</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>TOPS</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -918,17 +2270,79 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/kevin-morby-april-tour-mohawk-74472277587/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/kevin-morby-april-tour-mohawk-74472277587/</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sam Cohen</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/kevin-morby-april-tour-mohawk-74472277587/</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Friday, Apr 10</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/kevin-morby-april-tour-mohawk-74472277587/</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Kevin Morby</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -943,17 +2357,79 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/beauty-queen-mohawk-indoor--86939810313/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>9 PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/beauty-queen-mohawk-indoor--86939810313/</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/beauty-queen-mohawk-indoor--86939810313/</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Friday, Apr 10</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>9 PM</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/beauty-queen-mohawk-indoor--86939810313/</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Beauty Queen</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -968,17 +2444,79 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/of-montreal-mohawk-60532979772/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/of-montreal-mohawk-60532979772/</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Locate S,1</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/of-montreal-mohawk-60532979772/</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Margin Walker + 98.9 KUTX Present:</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Saturday, Apr 11</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/of-montreal-mohawk-60532979772/</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>of Montreal</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -993,17 +2531,79 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/raccoon-brothers-mohawk-indoor--89150642973/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>10 PM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/raccoon-brothers-mohawk-indoor--89150642973/</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/raccoon-brothers-mohawk-indoor--89150642973/</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Mohawk presents</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Saturday, Apr 11</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10 PM</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/raccoon-brothers-mohawk-indoor--89150642973/</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Raccoon Brothers @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1018,17 +2618,79 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/pussy-riot-mohawk-63779046846/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pussy-riot-mohawk-63779046846/</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Deli Girls</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pussy-riot-mohawk-63779046846/</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Sunday, Apr 12</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>6:30 PM</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/pussy-riot-mohawk-63779046846/</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Pussy Riot</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1043,17 +2705,79 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89342055493/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>5 PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89342055493/</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89342055493/</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Mohawk and Mercer Smith presents</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Monday, Apr 13</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>5 PM</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/punk-yoga-mohawk-indoor--89342055493/</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Punk Yoga @ Mohawk (Indoor)</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1068,17 +2792,79 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/wavves-king-of-the-beach-year-anniversary-usa-tour-mohawk-86964776989/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/wavves-king-of-the-beach-year-anniversary-usa-tour-mohawk-86964776989/</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SadGirl</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/wavves-king-of-the-beach-year-anniversary-usa-tour-mohawk-86964776989/</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Wednesday, Apr 15</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6:30 PM</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/wavves-king-of-the-beach-year-anniversary-usa-tour-mohawk-86964776989/</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Wavves</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1093,17 +2879,79 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/luttrell-mohawk-73588979619/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/luttrell-mohawk-73588979619/</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/luttrell-mohawk-73588979619/</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>C3 Concerts Presents</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>28</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Thursday, Apr 16</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/luttrell-mohawk-73588979619/</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Luttrell @ Mohawk</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1118,17 +2966,79 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/al-ce-mohawk-indoor--95667402777/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>9 PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/al-ce-mohawk-indoor--95667402777/</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Art Versus Industry, The Nimbus, DJ Miserymachine</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/al-ce-mohawk-indoor--95667402777/</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Blacklisted Presents</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Thursday, Apr 16</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>9 PM</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/al-ce-mohawk-indoor--95667402777/</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Al1ce</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1143,17 +3053,79 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/why-bonnie-mohawk-indoor--93156530691/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/why-bonnie-mohawk-indoor--93156530691/</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Pelvis Wrestley, Nevil</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/why-bonnie-mohawk-indoor--93156530691/</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>30</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Friday, Apr 17</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/why-bonnie-mohawk-indoor--93156530691/</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Why Bonnie</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1168,17 +3140,79 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/nightmares-on-wax-dj-set-mohawk-79797906687/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8 PM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/nightmares-on-wax-dj-set-mohawk-79797906687/</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/nightmares-on-wax-dj-set-mohawk-79797906687/</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Mohawk Presents</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>31</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Friday, Apr 17</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>8 PM</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/nightmares-on-wax-dj-set-mohawk-79797906687/</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Nightmares On Wax</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1193,17 +3227,79 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/turkuaz-mohawk-80800998963/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>8:30 PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/turkuaz-mohawk-80800998963/</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Con Brio</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/turkuaz-mohawk-80800998963/</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Presented by Mohawk</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Saturday, Apr 18</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>8:30 PM</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/turkuaz-mohawk-80800998963/</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Turkuaz</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1218,17 +3314,79 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/lauren-ruth-ward-mohawk-indoor--76957013499/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>9 PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/lauren-ruth-ward-mohawk-indoor--76957013499/</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Valley Queen, AC Sapphire</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/lauren-ruth-ward-mohawk-indoor--76957013499/</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Margin Walker presents</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>33</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Saturday, Apr 18</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>9 PM</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/lauren-ruth-ward-mohawk-indoor--76957013499/</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Lauren Ruth Ward</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1243,17 +3401,79 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/the-music-of-talking-heads-for-kids-mohawk-97812869927/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>11 AM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-music-of-talking-heads-for-kids-mohawk-97812869927/</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-music-of-talking-heads-for-kids-mohawk-97812869927/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>The Rock &amp; Roll Playhouse plays</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Sunday, Apr 19</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>11 AM</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/the-music-of-talking-heads-for-kids-mohawk-97812869927/</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>The Music of Talking Heads for Kids @ Mohawk</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
@@ -1268,392 +3488,79 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>https://www.mohawkaustin.com/e/abhi-the-nomad-s-earth-day-get-down-mohawk-90680751569/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NVal_show</t>
+          <t>6 PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_36</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_37</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_38</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_39</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_40</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_41</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>41</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_42</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_43</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>43</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_44</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>44</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_45</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>45</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_46</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>46</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_47</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>47</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_48</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>48</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_49</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>49</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>mohawk_50</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>50</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>NVal_show</t>
+          <t>All Ages</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/abhi-the-nomad-s-earth-day-get-down-mohawk-90680751569/</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Dr. Joe, Nane, Otis the Destroyer</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/abhi-the-nomad-s-earth-day-get-down-mohawk-90680751569/</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Abhi the Nomad &amp; Mohawk Present</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>35</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Sunday, Apr 19</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6 PM</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>NVal</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://www.mohawkaustin.com/e/abhi-the-nomad-s-earth-day-get-down-mohawk-90680751569/</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Abhi The Nomad</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>NVal</t>
         </is>
       </c>
     </row>
